--- a/Broad planning.xlsx
+++ b/Broad planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOURI\Documents\GitHub\Hardware_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE66F1-D366-44E9-9736-8B66F93AA817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75092949-29D8-4E04-A7AB-6796008493A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Activities</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Project week number</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -182,15 +179,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -474,7 +471,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,112 +482,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>17</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>18</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>19</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -611,16 +604,14 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -639,22 +630,16 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -671,8 +656,8 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
@@ -681,48 +666,24 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
@@ -734,9 +695,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -749,8 +708,8 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
@@ -770,29 +729,21 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -811,25 +762,19 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -845,8 +790,8 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
@@ -855,19 +800,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -877,8 +816,8 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1"/>
@@ -887,19 +826,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -909,8 +842,8 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
@@ -919,32 +852,26 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
@@ -954,15 +881,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -975,8 +896,8 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1"/>
@@ -986,15 +907,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1007,10 +922,10 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
@@ -1019,32 +934,24 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="R16" s="4"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1"/>
@@ -1053,34 +960,26 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="R17" s="4"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1"/>
@@ -1090,9 +989,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1107,8 +1004,8 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1"/>
@@ -1121,9 +1018,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1135,8 +1030,8 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1"/>
@@ -1152,9 +1047,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1163,8 +1056,8 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="1"/>
@@ -1183,9 +1076,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="S21" s="4"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1195,5 +1086,6 @@
     <mergeCell ref="C1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Broad planning.xlsx
+++ b/Broad planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOURI\Documents\GitHub\Hardware_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75092949-29D8-4E04-A7AB-6796008493A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CF4014-5DBC-4F07-BE30-B77958477DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -187,7 +193,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -471,7 +478,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,8 +489,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
       <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
@@ -775,8 +780,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -801,11 +806,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -830,8 +835,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="4"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -881,11 +886,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -907,11 +912,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -934,12 +939,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="4"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -960,12 +965,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="4"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -988,11 +993,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1014,13 +1019,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1040,11 +1045,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="4"/>
